--- a/itsm_foundation_data_tables.xlsx
+++ b/itsm_foundation_data_tables.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,7 +442,7 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="189" customWidth="1" min="3" max="3"/>
+    <col width="183" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -533,83 +533,66 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Vendor</t>
+          <t>User</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>core_company</t>
+          <t>sys_user</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Contains records for each vendor that your organization interacts with. In ServiceNow, vendors are often stored in the Company table, and differentiated by a field such as type or category.</t>
+          <t>Contains a record for each individual who has (or had) access to your ServiceNow instance. It includes information like their name, email, roles, etc.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>User</t>
+          <t>Group</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>sys_user</t>
+          <t>sys_user_group</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Contains a record for each individual who has (or had) access to your ServiceNow instance. It includes information like their name, email, roles, etc.</t>
+          <t>Contains records for each group of users within your ServiceNow instance. Groups can be used for many purposes, like assignment, approval rules, notifications, and access control.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Group</t>
+          <t>Group Members</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>sys_user_group</t>
+          <t>sys_user_grmember</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Contains records for each group of users within your ServiceNow instance. Groups can be used for many purposes, like assignment, approval rules, notifications, and access control.</t>
+          <t>Contains records of the relationships between users and groups. Each record represents a user being a member of a group.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Group Members</t>
+          <t>Role</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>sys_user_grmember</t>
+          <t>sys_user_role</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Contains records of the relationships between users and groups. Each record represents a user being a member of a group.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>sys_user_role</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>Contains records for each role within your ServiceNow instance. Roles are used to define what actions a user can perform and what data they can access.</t>
         </is>

--- a/itsm_foundation_data_tables.xlsx
+++ b/itsm_foundation_data_tables.xlsx
@@ -1,49 +1,145 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudz4/Desktop/SUDZ4DEV/markdown-converter/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104BED2C-F87F-5644-B16D-9947F3A41E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>Table Name (UI)</t>
+  </si>
+  <si>
+    <t>Technical Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Business Unit</t>
+  </si>
+  <si>
+    <t>cmn_cost_center</t>
+  </si>
+  <si>
+    <t>Contains records for each business unit within your organization. Business units can be used for categorizing costs, work, and other elements at a more granular level than a company.</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>cmn_department</t>
+  </si>
+  <si>
+    <t>Contains records for each department within your organization. Each user can be assigned to a department, which can be used for routing decisions, reporting, and other functions.</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>cmn_location</t>
+  </si>
+  <si>
+    <t>Contains records for physical locations where your company operates. This can include offices, data centers, or other locations. Each user and asset can be associated with a location.</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>core_company</t>
+  </si>
+  <si>
+    <t>Contains records for each company that your organization interacts with. This can include your own company, vendors, partners, and customers.</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>sys_user</t>
+  </si>
+  <si>
+    <t>Contains a record for each individual who has (or had) access to your ServiceNow instance. It includes information like their name, email, roles, etc.</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>sys_user_group</t>
+  </si>
+  <si>
+    <t>Contains records for each group of users within your ServiceNow instance. Groups can be used for many purposes, like assignment, approval rules, notifications, and access control.</t>
+  </si>
+  <si>
+    <t>Group Members</t>
+  </si>
+  <si>
+    <t>sys_user_grmember</t>
+  </si>
+  <si>
+    <t>Contains records of the relationships between users and groups. Each record represents a user being a member of a group.</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>sys_user_role</t>
+  </si>
+  <si>
+    <t>Contains records for each role within your ServiceNow instance. Roles are used to define what actions a user can perform and what data they can access.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <color rgb="00000000"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00182546"/>
-        <bgColor rgb="00182546"/>
+        <fgColor rgb="FF182546"/>
+        <bgColor rgb="FF182546"/>
       </patternFill>
     </fill>
   </fills>
@@ -59,87 +155,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -427,175 +467,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="183" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="66.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Table Name (UI)</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Technical Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Business Unit</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>cmn_cost_center</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Contains records for each business unit within your organization. Business units can be used for categorizing costs, work, and other elements at a more granular level than a company.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Department</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>cmn_department</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>Contains records for each department within your organization. Each user can be assigned to a department, which can be used for routing decisions, reporting, and other functions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>cmn_location</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Contains records for physical locations where your company operates. This can include offices, data centers, or other locations. Each user and asset can be associated with a location.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>core_company</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>Contains records for each company that your organization interacts with. This can include your own company, vendors, partners, and customers.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>sys_user</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Contains a record for each individual who has (or had) access to your ServiceNow instance. It includes information like their name, email, roles, etc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Group</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>sys_user_group</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>Contains records for each group of users within your ServiceNow instance. Groups can be used for many purposes, like assignment, approval rules, notifications, and access control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Group Members</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>sys_user_grmember</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>Contains records of the relationships between users and groups. Each record represents a user being a member of a group.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>sys_user_role</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Contains records for each role within your ServiceNow instance. Roles are used to define what actions a user can perform and what data they can access.</t>
-        </is>
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
